--- a/DUAS.xlsx
+++ b/DUAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47500B6-ECB3-45A0-8FB7-D9DA8A32DA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C8DBE-E7B4-4895-8178-B1CE12972799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="0" windowWidth="22130" windowHeight="18570" xr2:uid="{B3E2D610-5434-45BF-A8F0-303C070E207F}"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="21525" windowHeight="15585" xr2:uid="{B3E2D610-5434-45BF-A8F0-303C070E207F}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Estimate" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>

--- a/DUAS.xlsx
+++ b/DUAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C8DBE-E7B4-4895-8178-B1CE12972799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1C2322-2E4B-40AD-AF26-4F191B484090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="0" windowWidth="21525" windowHeight="15585" xr2:uid="{B3E2D610-5434-45BF-A8F0-303C070E207F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3E2D610-5434-45BF-A8F0-303C070E207F}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Estimate" sheetId="1" r:id="rId1"/>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E72C478-9BAF-4DE6-B129-116D3F993957}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -764,6 +764,24 @@
         <v>0.16339869281045752</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>0.89746031746031696</v>
+      </c>
+      <c r="G16" s="1">
+        <f>F16/F17</f>
+        <v>1.6774959204865736</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G16/2</f>
+        <v>0.83874796024328679</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
